--- a/CS4273 - Introduce to Software Engineering/M11/CS4273.M11.CTTT.2.xlsx
+++ b/CS4273 - Introduce to Software Engineering/M11/CS4273.M11.CTTT.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\CS4273 - NMCNPM\M11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\CS4273 - Introduce to Software Engineering\M11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909A4A18-FEA6-4A44-AE9C-62C10F80A373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75C783F-0D40-4329-B509-FAB5A21863E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="55">
   <si>
     <t>TRƯỜNG ĐH CÔNG NGHỆ THÔNG TIN</t>
   </si>
@@ -498,6 +498,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,21 +525,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -849,11 +849,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="27"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -863,11 +863,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="28"/>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
@@ -885,23 +885,23 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="29"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -909,11 +909,11 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="26"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -921,11 +921,11 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="26"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1014,7 +1014,9 @@
       <c r="G11" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="41"/>
+      <c r="H11" s="41" t="s">
+        <v>44</v>
+      </c>
       <c r="I11" s="41"/>
       <c r="J11" s="41"/>
     </row>
@@ -1058,7 +1060,9 @@
       <c r="G13" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="41"/>
+      <c r="H13" s="41" t="s">
+        <v>44</v>
+      </c>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
     </row>
@@ -1084,7 +1088,9 @@
       <c r="G14" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="41"/>
+      <c r="H14" s="41" t="s">
+        <v>44</v>
+      </c>
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
     </row>
@@ -1110,7 +1116,9 @@
       <c r="G15" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="41"/>
+      <c r="H15" s="41" t="s">
+        <v>44</v>
+      </c>
       <c r="I15" s="41"/>
       <c r="J15" s="41"/>
     </row>
@@ -1156,7 +1164,9 @@
       <c r="G17" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="41"/>
+      <c r="H17" s="41" t="s">
+        <v>44</v>
+      </c>
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
     </row>
@@ -1182,8 +1192,12 @@
       <c r="G18" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="H18" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>52</v>
+      </c>
       <c r="J18" s="41"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1206,8 +1220,12 @@
       <c r="G19" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
+      <c r="H19" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>52</v>
+      </c>
       <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1232,8 +1250,12 @@
       <c r="G20" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
+      <c r="H20" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>52</v>
+      </c>
       <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1258,7 +1280,9 @@
       <c r="G21" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="41"/>
+      <c r="H21" s="41" t="s">
+        <v>44</v>
+      </c>
       <c r="I21" s="41"/>
       <c r="J21" s="41"/>
     </row>
@@ -1284,7 +1308,9 @@
       <c r="G22" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="41"/>
+      <c r="H22" s="41" t="s">
+        <v>44</v>
+      </c>
       <c r="I22" s="41"/>
       <c r="J22" s="41"/>
     </row>
@@ -1310,8 +1336,12 @@
       <c r="G23" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
+      <c r="H23" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>52</v>
+      </c>
       <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1336,7 +1366,9 @@
       <c r="G24" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="41"/>
+      <c r="H24" s="41" t="s">
+        <v>44</v>
+      </c>
       <c r="I24" s="41"/>
       <c r="J24" s="41"/>
     </row>
@@ -1362,7 +1394,9 @@
       <c r="G25" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="41"/>
+      <c r="H25" s="41" t="s">
+        <v>44</v>
+      </c>
       <c r="I25" s="41"/>
       <c r="J25" s="41"/>
     </row>
@@ -1388,7 +1422,9 @@
       <c r="G26" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="41"/>
+      <c r="H26" s="41" t="s">
+        <v>44</v>
+      </c>
       <c r="I26" s="41"/>
       <c r="J26" s="41"/>
     </row>
@@ -1414,7 +1450,9 @@
       <c r="G27" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="41"/>
+      <c r="H27" s="41" t="s">
+        <v>44</v>
+      </c>
       <c r="I27" s="41"/>
       <c r="J27" s="41"/>
     </row>
@@ -1435,30 +1473,30 @@
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="14"/>
       <c r="D30" s="23"/>
       <c r="E30" s="33"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="15"/>
       <c r="D31" s="25"/>
       <c r="E31" s="34"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
     </row>
     <row r="32" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
@@ -1473,17 +1511,17 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="11">
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="F31:H31"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="F31:H31"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.26" right="0.17" top="0.32" bottom="0.28999999999999998" header="0.25" footer="0.19"/>
